--- a/2012_dengue_extracted.xlsx
+++ b/2012_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/Bioinfo/Klimaprojekt/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C16237A0-4642-484C-8CBB-30B3963E5425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C40D1081-1842-4501-B155-4A9CFD92BF6A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5542C-C132-3A4F-8BEC-22DA6D3182FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>Uthai Thani</t>
   </si>
   <si>
-    <t>Reporting areas</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,9 +401,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -441,9 +441,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,26 +476,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,26 +511,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -723,68 +689,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
-    <col min="10" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" customWidth="1"/>
+    <col min="10" max="11" width="10.3984375" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" customWidth="1"/>
+    <col min="13" max="13" width="6.59765625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
@@ -825,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -866,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -907,7 +871,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -948,7 +912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
@@ -989,7 +953,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1030,7 +994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1035,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -1112,7 +1076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1153,7 +1117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -1194,7 +1158,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -1235,7 +1199,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1276,7 +1240,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -1317,7 +1281,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -1358,7 +1322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -1399,7 +1363,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1445,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -1522,7 +1486,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -1604,7 +1568,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +1609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1686,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
@@ -1727,7 +1691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -1768,7 +1732,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
@@ -1809,7 +1773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
@@ -1850,7 +1814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -1891,7 +1855,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1932,7 +1896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
@@ -1973,7 +1937,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -2014,7 +1978,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
@@ -2055,7 +2019,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -2137,7 +2101,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
@@ -2178,7 +2142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
@@ -2219,7 +2183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +2224,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>14</v>
       </c>
@@ -2301,7 +2265,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
@@ -2342,7 +2306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
@@ -2383,7 +2347,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -2424,7 +2388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -2465,7 +2429,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2506,7 +2470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>70</v>
       </c>
@@ -2547,7 +2511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>30</v>
       </c>
@@ -2588,7 +2552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -2629,7 +2593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>71</v>
       </c>
@@ -2670,7 +2634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>69</v>
       </c>
@@ -2711,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>43</v>
       </c>
@@ -2752,7 +2716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>23</v>
       </c>
@@ -2793,7 +2757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>31</v>
       </c>
@@ -2834,7 +2798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
@@ -2875,7 +2839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>28</v>
       </c>
@@ -2916,7 +2880,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>36</v>
       </c>
@@ -2957,7 +2921,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
@@ -2998,7 +2962,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>24</v>
       </c>
@@ -3039,7 +3003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -3080,7 +3044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>25</v>
       </c>
@@ -3121,7 +3085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>32</v>
       </c>
@@ -3162,7 +3126,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>33</v>
       </c>
@@ -3203,7 +3167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>16</v>
       </c>
@@ -3244,7 +3208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
@@ -3285,7 +3249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>60</v>
       </c>
@@ -3326,7 +3290,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>20</v>
       </c>
@@ -3367,7 +3331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>49</v>
       </c>
@@ -3408,7 +3372,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
@@ -3449,7 +3413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>29</v>
       </c>
@@ -3490,7 +3454,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -3531,7 +3495,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
         <v>64</v>
       </c>
@@ -3572,7 +3536,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
@@ -3613,7 +3577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>45</v>
       </c>
@@ -3654,7 +3618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>37</v>
       </c>
@@ -3695,7 +3659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
@@ -3736,7 +3700,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -3777,7 +3741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
@@ -3818,7 +3782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>73</v>
       </c>
@@ -3859,7 +3823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>50</v>
       </c>
@@ -3900,7 +3864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>61</v>
       </c>

--- a/2012_dengue_extracted.xlsx
+++ b/2012_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED5542C-C132-3A4F-8BEC-22DA6D3182FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3ED5542C-C132-3A4F-8BEC-22DA6D3182FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EADFD622-A239-448E-9902-50D3CE09DB57}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -268,18 +268,9 @@
     <t>May</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>Aug</t>
   </si>
   <si>
-    <t>Sept</t>
-  </si>
-  <si>
     <t>Oct</t>
   </si>
   <si>
@@ -290,6 +281,15 @@
   </si>
   <si>
     <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,9 +401,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -441,9 +441,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,9 +476,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,9 +528,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -689,27 +723,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.19921875" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" customWidth="1"/>
-    <col min="4" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" customWidth="1"/>
-    <col min="10" max="11" width="10.3984375" customWidth="1"/>
-    <col min="12" max="12" width="8.3984375" customWidth="1"/>
-    <col min="13" max="13" width="6.59765625" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="10" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>77</v>
@@ -727,28 +763,28 @@
         <v>81</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
@@ -789,7 +825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -830,7 +866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -871,7 +907,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -912,7 +948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
@@ -953,7 +989,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -994,7 +1030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1035,7 +1071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -1076,7 +1112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1117,7 +1153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -1158,7 +1194,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -1199,7 +1235,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1240,7 +1276,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -1281,7 +1317,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -1322,7 +1358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -1363,7 +1399,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1404,7 +1440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1445,7 +1481,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
@@ -1486,7 +1522,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -1568,7 +1604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1609,7 +1645,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1650,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
@@ -1691,7 +1727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -1732,7 +1768,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +1809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
@@ -1814,7 +1850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -1855,7 +1891,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1896,7 +1932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
@@ -1937,7 +1973,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -1978,7 +2014,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
@@ -2019,7 +2055,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
@@ -2060,7 +2096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -2101,7 +2137,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
@@ -2142,7 +2178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>52</v>
       </c>
@@ -2183,7 +2219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
@@ -2224,7 +2260,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>14</v>
       </c>
@@ -2265,7 +2301,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
@@ -2306,7 +2342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
@@ -2347,7 +2383,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -2388,7 +2424,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -2429,7 +2465,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -2470,7 +2506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>70</v>
       </c>
@@ -2511,7 +2547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>30</v>
       </c>
@@ -2552,7 +2588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +2629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>71</v>
       </c>
@@ -2634,7 +2670,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>69</v>
       </c>
@@ -2675,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>43</v>
       </c>
@@ -2716,7 +2752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>23</v>
       </c>
@@ -2757,7 +2793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>31</v>
       </c>
@@ -2798,7 +2834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
@@ -2839,7 +2875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>28</v>
       </c>
@@ -2880,7 +2916,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>36</v>
       </c>
@@ -2921,7 +2957,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
@@ -2962,7 +2998,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>24</v>
       </c>
@@ -3003,7 +3039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -3044,7 +3080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>25</v>
       </c>
@@ -3085,7 +3121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>32</v>
       </c>
@@ -3126,7 +3162,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>33</v>
       </c>
@@ -3167,7 +3203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>16</v>
       </c>
@@ -3208,7 +3244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>48</v>
       </c>
@@ -3249,7 +3285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>60</v>
       </c>
@@ -3290,7 +3326,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>20</v>
       </c>
@@ -3331,7 +3367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>49</v>
       </c>
@@ -3372,7 +3408,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
@@ -3413,7 +3449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>29</v>
       </c>
@@ -3454,7 +3490,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
@@ -3495,7 +3531,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>64</v>
       </c>
@@ -3536,7 +3572,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
@@ -3577,7 +3613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>45</v>
       </c>
@@ -3618,7 +3654,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>37</v>
       </c>
@@ -3659,7 +3695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
@@ -3700,7 +3736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -3741,7 +3777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
@@ -3782,7 +3818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>73</v>
       </c>
@@ -3823,7 +3859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>50</v>
       </c>
@@ -3864,7 +3900,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="18" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>61</v>
       </c>

--- a/2012_dengue_extracted.xlsx
+++ b/2012_dengue_extracted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3ED5542C-C132-3A4F-8BEC-22DA6D3182FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EADFD622-A239-448E-9902-50D3CE09DB57}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3ED5542C-C132-3A4F-8BEC-22DA6D3182FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38748139-2487-4F14-963F-8108EAF9F41E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,9 +190,6 @@
     <t>Sakon Nakhon</t>
   </si>
   <si>
-    <t>Kalisin</t>
-  </si>
-  <si>
     <t>Maha Sarakham</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>Sep</t>
+  </si>
+  <si>
+    <t>Kalasin</t>
   </si>
 </sst>
 </file>
@@ -400,10 +400,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -441,9 +445,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,26 +480,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,26 +515,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -723,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -745,48 +715,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -950,7 +920,7 @@
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
@@ -1073,7 +1043,7 @@
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="6">
         <v>16</v>
@@ -1155,7 +1125,7 @@
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6">
         <v>19</v>
@@ -1196,7 +1166,7 @@
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="6">
         <v>4</v>
@@ -1319,7 +1289,7 @@
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -1360,7 +1330,7 @@
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="6">
         <v>21</v>
@@ -1565,7 +1535,7 @@
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="6">
         <v>2</v>
@@ -1688,7 +1658,7 @@
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
@@ -1729,7 +1699,7 @@
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="6">
         <v>12</v>
@@ -1975,7 +1945,7 @@
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="6">
         <v>24</v>
@@ -2508,7 +2478,7 @@
     </row>
     <row r="44" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="6">
         <v>8</v>
@@ -2631,7 +2601,7 @@
     </row>
     <row r="47" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="6">
         <v>16</v>
@@ -2672,7 +2642,7 @@
     </row>
     <row r="48" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="6">
         <v>3</v>
@@ -2959,7 +2929,7 @@
     </row>
     <row r="55" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="6">
         <v>10</v>
@@ -3287,7 +3257,7 @@
     </row>
     <row r="63" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="6">
         <v>12</v>
@@ -3533,7 +3503,7 @@
     </row>
     <row r="69" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="6">
         <v>8</v>
@@ -3574,7 +3544,7 @@
     </row>
     <row r="70" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="6">
         <v>20</v>
@@ -3779,7 +3749,7 @@
     </row>
     <row r="75" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="6">
         <v>13</v>
@@ -3820,7 +3790,7 @@
     </row>
     <row r="76" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="6">
         <v>5</v>
@@ -3902,7 +3872,7 @@
     </row>
     <row r="78" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" s="6">
         <v>1</v>
